--- a/5sem/51/tables/fit.xlsx
+++ b/5sem/51/tables/fit.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16160" tabRatio="500"/>
+    <workbookView xWindow="16540" yWindow="440" windowWidth="12260" windowHeight="16160" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -24,30 +24,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="1">
   <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>N'</t>
-  </si>
-  <si>
-    <t>t</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>s N</t>
-  </si>
-  <si>
-    <t>ln N</t>
-  </si>
-  <si>
-    <t>s ln N</t>
-  </si>
-  <si>
-    <t>№</t>
+    <t>\pm</t>
   </si>
 </sst>
 </file>
@@ -371,67 +350,99 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I7"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
+      <c r="A1" s="1">
+        <v>9.25</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
+      <c r="C1" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="D1" s="1">
+        <v>0.96899999999999997</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F1" s="1">
+        <v>1.4E-2</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="A2" s="1">
+        <v>9.2899999999999991</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
+        <v>6.0000000000000001E-3</v>
+      </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="A3" s="1">
+        <v>9.3800000000000008</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="A4" s="1">
+        <v>9.39</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="D4" s="1">
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>4.0000000000000002E-4</v>
+      </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
